--- a/Project Outputs for CAN MUX/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs for CAN MUX/BOM/Bill of Materials-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-MUX\Project Outputs for CAN MUX\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B57CC4-63A1-4ED5-B1FF-926EF7B8A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BEDC13-1896-4788-BAC8-BD8353799C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{6D366768-B4C6-4B0C-A148-569E8CF4818B}"/>
+    <workbookView xWindow="6225" yWindow="1020" windowWidth="18975" windowHeight="11385" xr2:uid="{001C30FD-D13E-4ABF-9135-251F3204080E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-BOM'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Designator</t>
   </si>
@@ -66,51 +75,31 @@
     <t>Name</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4</t>
+    <t>C5, C6, C7, C8</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>GRM31CR71H225KA88L</t>
+  </si>
+  <si>
+    <t>2.2u</t>
+  </si>
+  <si>
+    <t>1206 Murata</t>
+  </si>
+  <si>
+    <t>1206 2.2 uF 50 V В±10% Tolerance X7R SMT Multilayer Ceramic Capacitor</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>TAJD156K050RNJ</t>
-  </si>
-  <si>
-    <t>15u</t>
-  </si>
-  <si>
-    <t>SMD 7343</t>
-  </si>
-  <si>
-    <t>TAJD156K050RNJ, Танталовые конденсаторы - твердые, для поверхностного монтажа 50V 15uF 10%</t>
-  </si>
-  <si>
     <t>SMD</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product1/8007242628</t>
-  </si>
-  <si>
-    <t>C5, C6, C7, C8</t>
-  </si>
-  <si>
-    <t>Murata Electronics</t>
-  </si>
-  <si>
-    <t>GRM31CR71H225KA88L</t>
-  </si>
-  <si>
-    <t>2.2u</t>
-  </si>
-  <si>
-    <t>1206 Murata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000D_
-1206 2.2 uF 50 V В±10% Tolerance X7R SMT Multilayer Ceramic Capacitor_x000D_
-</t>
-  </si>
-  <si>
-    <t>CAN1, CAN2, CAN3, CAN4, CAN-AP1, CAN-SNIFFER1</t>
+    <t>CAN1, CAN2, CAN3, CAN4, CAN5, CAN6</t>
   </si>
   <si>
     <t>JST Sales</t>
@@ -149,13 +138,13 @@
     <t>502585-0670</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>IN</t>
   </si>
   <si>
     <t>AMASS</t>
   </si>
   <si>
-    <t>XT30-M</t>
+    <t>XT30PW-M</t>
   </si>
   <si>
     <t>Package Analog Devices</t>
@@ -164,22 +153,25 @@
     <t>L1</t>
   </si>
   <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>IHLP2020BZER100M01</t>
-  </si>
-  <si>
-    <t>Nonstandard Vishay</t>
-  </si>
-  <si>
-    <t>10ÂµH Shielded Molded Inductor 2.3A 199mOhm Max Nonstandard</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/34253/ihlp-2020bz-01.pdf</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/ihlp2020bzer100m11-inductor-ihlp-smd-2020-10</t>
+    <t>IHLP3232DZER8R2M01</t>
+  </si>
+  <si>
+    <t>8.2 uH</t>
+  </si>
+  <si>
+    <t>Силовой Индуктор (SMD), 8.2 мкГн, 5.5 А, Экранированный, 10 А, Серия IHLP-3232DZ-01</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2046006.pdf</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/ihlp3232dzer8r2m01</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>XT30PW-F</t>
   </si>
 </sst>
 </file>
@@ -237,13 +229,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -559,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70569C-7EA6-4F7E-A142-7FC99DC82074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3953BAC9-6AD7-417C-A6DF-0635525C86D2}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -580,41 +569,41 @@
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -641,27 +630,27 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -670,124 +659,116 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -798,30 +779,24 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
